--- a/タイトル.xlsx
+++ b/タイトル.xlsx
@@ -600,6 +600,140 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="2095500"/>
+          <a:ext cx="419100" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="2228850"/>
+          <a:ext cx="1333500" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>矢印で選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>矢印はスティックの上下で反応</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -869,7 +1003,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
